--- a/Métricas_PCA.xlsx
+++ b/Métricas_PCA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e0323458c84468b/Escritorio/Business Intelligence/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\Workspace\business_Intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="8_{4642F59B-858D-48AF-B1C6-28B4626AF83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{442B85E9-8AA9-4333-AAF2-BE2A4D199EA1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298550A3-4BDE-4971-88BB-5E32A2EB03B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="29" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Segmento Cliente" sheetId="7" r:id="rId1"/>
@@ -332,7 +332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,7 +536,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -850,12 +850,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
@@ -871,7 +871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
@@ -879,7 +879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
@@ -887,7 +887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
@@ -895,7 +895,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
@@ -917,12 +917,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
@@ -938,7 +938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
@@ -946,7 +946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>38</v>
       </c>
@@ -954,7 +954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>39</v>
       </c>
@@ -962,7 +962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>40</v>
       </c>
@@ -970,7 +970,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>41</v>
       </c>
@@ -989,16 +989,16 @@
   <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD109"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>43</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>44</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>45</v>
       </c>
@@ -1044,12 +1044,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>47</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>48</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>49</v>
       </c>
@@ -1095,12 +1095,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>50</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>51</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>52</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>53</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>54</v>
       </c>
@@ -1154,12 +1154,12 @@
       <selection activeCell="B4" sqref="B4:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>56</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>57</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>58</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>59</v>
       </c>
@@ -1210,15 +1210,15 @@
   <dimension ref="B3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>61</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>62</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>63</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>64</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>65</v>
       </c>
@@ -1277,16 +1277,16 @@
   <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>60</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>62</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
@@ -1332,12 +1332,12 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>62</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -1399,13 +1399,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>60</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1451,12 +1451,12 @@
       <selection activeCell="B3" sqref="B3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>66</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1494,12 +1494,12 @@
       <selection activeCell="B3" sqref="B3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1537,12 +1537,12 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>67</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -1588,13 +1588,13 @@
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>67</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
@@ -1632,9 +1632,9 @@
       <selection activeCell="A3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="2" spans="1:2">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>76</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>77</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
@@ -1696,12 +1696,12 @@
       <selection activeCell="B4" sqref="B4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>79</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>62</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
@@ -1749,19 +1749,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="14"/>
     </row>
   </sheetData>
@@ -1778,12 +1778,12 @@
       <selection activeCell="C3" sqref="C3:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>63</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
@@ -1845,12 +1845,12 @@
       <selection activeCell="D3" sqref="D3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6">
+    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>80</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:6">
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>61</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:6">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>62</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="4:6">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>63</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="4:6">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
@@ -1913,12 +1913,12 @@
       <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>81</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:5">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>61</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:5">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>62</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="4:5">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>63</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
@@ -1980,13 +1980,13 @@
       <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:7">
+    <row r="2" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F2" s="3" t="s">
         <v>82</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="6:7">
+    <row r="3" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
         <v>61</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="6:7">
+    <row r="4" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
         <v>62</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="6:7">
+    <row r="5" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>63</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="6:7">
+    <row r="6" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="6:7">
+    <row r="7" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
@@ -2048,12 +2048,12 @@
       <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:5">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>84</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="4:5">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="4:5">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>62</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>63</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>64</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>65</v>
       </c>
@@ -2115,12 +2115,12 @@
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:6">
+    <row r="2" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E2" s="3" t="s">
         <v>85</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="5:6">
+    <row r="3" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E3" s="2" t="s">
         <v>61</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="5:6">
+    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
         <v>62</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="5:6">
+    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E5" s="2" t="s">
         <v>63</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="5:6">
+    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="5:6">
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E7" s="2" t="s">
         <v>65</v>
       </c>
@@ -2178,16 +2178,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
@@ -2195,39 +2195,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="22">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="22">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="21"/>
     </row>
   </sheetData>
@@ -2240,16 +2240,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="G3:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:8">
+    <row r="3" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G3" s="3" t="s">
         <v>86</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="7:8">
+    <row r="4" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G4" s="2" t="s">
         <v>61</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="7:8">
+    <row r="5" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G5" s="2" t="s">
         <v>62</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="7:8">
+    <row r="6" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G6" s="2" t="s">
         <v>63</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="7:8">
+    <row r="7" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G7" s="2" t="s">
         <v>64</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="7:8">
+    <row r="8" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G8" s="2" t="s">
         <v>65</v>
       </c>
@@ -2311,12 +2311,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
@@ -2354,12 +2354,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
@@ -2405,12 +2405,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
@@ -2456,12 +2456,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>28</v>
       </c>
@@ -2499,12 +2499,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
@@ -2542,13 +2542,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>35</v>
       </c>
@@ -2587,21 +2587,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100551C83F2DF3483449B1A44F59AF35375" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ff55e5d488fc258a0cdd9f788ce632d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="93836624-39b2-4150-bfb6-29a88d1fe321" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c504971bee6c5b2938ffcf9cfc99814d" ns2:_="">
     <xsd:import namespace="93836624-39b2-4150-bfb6-29a88d1fe321"/>
@@ -2769,14 +2754,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCB78407-9B15-422C-8544-A2F9BCF99BED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{322038E6-4C80-4633-9A9A-0200D368AE54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="93836624-39b2-4150-bfb6-29a88d1fe321"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42B8487E-5137-4FD3-B3ED-5D49EF811311}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42B8487E-5137-4FD3-B3ED-5D49EF811311}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{322038E6-4C80-4633-9A9A-0200D368AE54}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCB78407-9B15-422C-8544-A2F9BCF99BED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>